--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Indonesia\eps-1.2.1-WIP-B\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FB9EC-098D-47C2-82FF-923B9AA82DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="100" windowWidth="17220" windowHeight="8210"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -38,58 +50,31 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>Project Voltage (kV)</t>
-  </si>
-  <si>
-    <t>Project Distance (km)</t>
-  </si>
-  <si>
-    <t>Project capacity (kV*km)</t>
-  </si>
-  <si>
-    <t>Investment Cost (Rp billion)</t>
-  </si>
-  <si>
-    <t>We adjust 2013 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>Construction cost per unit capacity distance (2013 rupiah/(kV*km))</t>
-  </si>
-  <si>
-    <t>Construction cost per unit capacity distance (2013 USD/(kV*km))</t>
-  </si>
-  <si>
-    <t>Construction cost per unit capacity distance (2012 USD/(kV*km))</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/(kV*km))</t>
-  </si>
-  <si>
-    <t>Asia Development Bank</t>
-  </si>
-  <si>
-    <t>Java–Bali 500-Kilovolt Power Transmission Crossing Project (RRP INO 42362)</t>
-  </si>
-  <si>
-    <t>https://www.adb.org/sites/default/files/linked-documents/42362-013-ea.pdf</t>
-  </si>
-  <si>
-    <t>Page 1, Table 5, and Page 3</t>
-  </si>
-  <si>
-    <t>We convert 2013 Rupiah to USD using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>See https://www.fiscal.treasury.gov/fsreports/rpt/treasRptRateExch/intn-12-31-2013.pdf</t>
+    <t>Cost per Unit Capacity Distance (2012$/(circuit mile))</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>http://sites.utexas.edu/energyinstitute/files/2016/11/UTAustin_FCe_TransmissionCosts_2016.pdf</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin Energy Institute</t>
+  </si>
+  <si>
+    <t>Estimation of Transmission Costs for New Generation</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,30 +196,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,6 +228,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161104</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD2E4CF-B955-4B59-BEE8-2B8AF2EAB153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5610225"/>
+          <a:ext cx="6571429" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -325,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -360,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,62 +621,47 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
+      <c r="A10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>0.98710920899565158</v>
+      <c r="A11" s="4">
+        <v>0.95661376543184151</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -621,114 +670,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A13:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <f>B1*B2</f>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <f>SUM(481,1723,1789,1091)</f>
-        <v>5084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
-        <f>B4*10^9/B3</f>
-        <v>46218181.81818182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <f>B5/About!A15</f>
-        <v>3819.6844477836216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <f>B6*About!A11</f>
-        <v>3770.4456938646831</v>
+      <c r="B13">
+        <f>AVERAGE(1.114,0.823,0.847)</f>
+        <v>0.92799999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <f>Calculations!B7</f>
-        <v>3770.4456938646831</v>
+      <c r="B2" s="6">
+        <f>Data!B13*1000000*About!A11</f>
+        <v>887737.5743207488</v>
       </c>
     </row>
   </sheetData>
